--- a/Store Codes.xlsx
+++ b/Store Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah.nadim\Desktop\Nadim_Work\UiPath\Central Ordering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23E5487-7EFF-42A7-83D7-70F32B66CEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE396B9-2F6C-4948-B8FF-5295154EFE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VG" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Code</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>BTP</t>
+  </si>
+  <si>
+    <t>LGC</t>
   </si>
 </sst>
 </file>
@@ -516,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +700,11 @@
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -743,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62165A8E-9435-44B3-AC62-4EFC74CC126C}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Store Codes.xlsx
+++ b/Store Codes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ah.nadim\Desktop\Nadim_Work\UiPath\Central Ordering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE396B9-2F6C-4948-B8FF-5295154EFE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF25F90-D5BA-4DB6-B5F6-8E105C433C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VG" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C95C5E9-40C9-4381-8887-5EF41403E608}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
